--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1611"/>
+  <dimension ref="A1:R1615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90685,7 +90685,225 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45446.42708333334</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>659</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>659</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>659</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>659</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>659</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>2949</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45446.46875</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>649.4500122070312</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>649.4500122070312</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>649.4500122070312</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>649.4500122070312</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>649.4500122070312</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>2198</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45446.51041666666</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>4739</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45446.55208333334</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1615"/>
+  <dimension ref="A1:R1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90741,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90795,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90849,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90903,7 +90909,63 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45446.63541666666</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>637</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>637</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>637</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>637</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>637</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>15946</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -90965,7 +90965,9 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1616"/>
+  <dimension ref="A1:R1621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90969,6 +90969,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45447.38541666666</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45447.42708333334</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>788</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>267</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45447.55208333334</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>1280</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>624.2999877929688</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>178</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -90461,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90515,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90569,7 +90573,9 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1610">
       <c r="A1610" s="2" t="n">
@@ -90623,7 +90629,9 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" s="2" t="n">
@@ -90677,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90731,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>1</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1612"/>
+  <dimension ref="A1:R1618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90229,7 +90229,7 @@
         <v>23</v>
       </c>
       <c r="O1603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1603" t="n">
         <v>0</v>
@@ -90285,7 +90285,7 @@
         <v>23</v>
       </c>
       <c r="O1604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1604" t="n">
         <v>0</v>
@@ -90341,7 +90341,7 @@
         <v>23</v>
       </c>
       <c r="O1605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1605" t="n">
         <v>0</v>
@@ -90397,7 +90397,7 @@
         <v>23</v>
       </c>
       <c r="O1606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1606" t="n">
         <v>0</v>
@@ -90744,6 +90744,330 @@
       <c r="R1612" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45450.38541666666</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>636</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>636</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45450.42708333334</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>636</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>636</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>1717</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>3703</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45450.51041666666</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>381</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45450.55208333334</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>755</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45450.59375</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>636.5</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>1543</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1609"/>
+  <dimension ref="A1:R1610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90349,7 +90349,9 @@
       <c r="Q1605" t="n">
         <v>0</v>
       </c>
-      <c r="R1605" t="inlineStr"/>
+      <c r="R1605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1606">
       <c r="A1606" s="2" t="n">
@@ -90403,7 +90405,9 @@
       <c r="Q1606" t="n">
         <v>0</v>
       </c>
-      <c r="R1606" t="inlineStr"/>
+      <c r="R1606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1607">
       <c r="A1607" s="2" t="n">
@@ -90457,7 +90461,9 @@
       <c r="Q1607" t="n">
         <v>0</v>
       </c>
-      <c r="R1607" t="inlineStr"/>
+      <c r="R1607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1608">
       <c r="A1608" s="2" t="n">
@@ -90511,7 +90517,9 @@
       <c r="Q1608" t="n">
         <v>0</v>
       </c>
-      <c r="R1608" t="inlineStr"/>
+      <c r="R1608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1609">
       <c r="A1609" s="2" t="n">
@@ -90565,7 +90573,63 @@
       <c r="Q1609" t="n">
         <v>0</v>
       </c>
-      <c r="R1609" t="inlineStr"/>
+      <c r="R1609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45453.59375</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>649.2000122070312</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>649.2000122070312</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>649.2000122070312</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>649.2000122070312</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>649.2000122070312</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>2825</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1610" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1610" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1610"/>
+  <dimension ref="A1:R1616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90629,7 +90629,333 @@
       <c r="Q1610" t="n">
         <v>0</v>
       </c>
-      <c r="R1610" t="inlineStr"/>
+      <c r="R1610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45454.38541666666</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>657.7999877929688</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1611" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45454.42708333334</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="F1612" t="n">
+        <v>655.9000244140625</v>
+      </c>
+      <c r="G1612" t="n">
+        <v>1927</v>
+      </c>
+      <c r="H1612" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1612" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1612" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1612" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1612" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1612" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1612" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45454.46875</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>654</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>654</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>654</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>654</v>
+      </c>
+      <c r="F1613" t="n">
+        <v>654</v>
+      </c>
+      <c r="G1613" t="n">
+        <v>1562</v>
+      </c>
+      <c r="H1613" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1613" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1613" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1613" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1613" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1613" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1613" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45454.51041666666</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="F1614" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="G1614" t="n">
+        <v>1691</v>
+      </c>
+      <c r="H1614" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1614" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1614" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1614" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1614" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1614" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1614" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45454.55208333334</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>877</v>
+      </c>
+      <c r="H1615" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1615" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1615" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1615" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1615" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1615" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1615" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45454.59375</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>636.25</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>1989</v>
+      </c>
+      <c r="H1616" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1616" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1616" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1616" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1616" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1616" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1616" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1616" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1616"/>
+  <dimension ref="A1:R1622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90677,7 +90677,7 @@
         <v>24</v>
       </c>
       <c r="O1611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1611" t="n">
         <v>0</v>
@@ -90685,7 +90685,9 @@
       <c r="Q1611" t="n">
         <v>0</v>
       </c>
-      <c r="R1611" t="inlineStr"/>
+      <c r="R1611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" s="2" t="n">
@@ -90739,7 +90741,9 @@
       <c r="Q1612" t="n">
         <v>0</v>
       </c>
-      <c r="R1612" t="inlineStr"/>
+      <c r="R1612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" s="2" t="n">
@@ -90793,7 +90797,9 @@
       <c r="Q1613" t="n">
         <v>0</v>
       </c>
-      <c r="R1613" t="inlineStr"/>
+      <c r="R1613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" s="2" t="n">
@@ -90847,7 +90853,9 @@
       <c r="Q1614" t="n">
         <v>0</v>
       </c>
-      <c r="R1614" t="inlineStr"/>
+      <c r="R1614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" s="2" t="n">
@@ -90901,7 +90909,9 @@
       <c r="Q1615" t="n">
         <v>0</v>
       </c>
-      <c r="R1615" t="inlineStr"/>
+      <c r="R1615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" s="2" t="n">
@@ -90955,7 +90965,333 @@
       <c r="Q1616" t="n">
         <v>0</v>
       </c>
-      <c r="R1616" t="inlineStr"/>
+      <c r="R1616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45455.38541666666</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1617" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1617" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1617" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1617" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1617" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1617" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1617" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45455.42708333334</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>3875</v>
+      </c>
+      <c r="H1618" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1618" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1618" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1618" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1618" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1618" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1618" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45455.46875</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>733</v>
+      </c>
+      <c r="H1619" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1619" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1619" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1619" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1619" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1619" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1619" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45455.51041666666</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>825</v>
+      </c>
+      <c r="H1620" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1620" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1620" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1620" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1620" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45455.55208333334</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1621" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1621" t="n">
+        <v>346</v>
+      </c>
+      <c r="H1621" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1621" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1621" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1621" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1621" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1621" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1621" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45455.59375</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="F1622" t="n">
+        <v>623.5499877929688</v>
+      </c>
+      <c r="G1622" t="n">
+        <v>425</v>
+      </c>
+      <c r="H1622" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1622" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1622" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1622" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1622" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1622" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1622" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1622" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1622"/>
+  <dimension ref="A1:R1627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91021,7 +91021,9 @@
       <c r="Q1617" t="n">
         <v>0</v>
       </c>
-      <c r="R1617" t="inlineStr"/>
+      <c r="R1617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1618">
       <c r="A1618" s="2" t="n">
@@ -91075,7 +91077,9 @@
       <c r="Q1618" t="n">
         <v>0</v>
       </c>
-      <c r="R1618" t="inlineStr"/>
+      <c r="R1618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1619">
       <c r="A1619" s="2" t="n">
@@ -91129,7 +91133,9 @@
       <c r="Q1619" t="n">
         <v>0</v>
       </c>
-      <c r="R1619" t="inlineStr"/>
+      <c r="R1619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1620">
       <c r="A1620" s="2" t="n">
@@ -91183,7 +91189,9 @@
       <c r="Q1620" t="n">
         <v>0</v>
       </c>
-      <c r="R1620" t="inlineStr"/>
+      <c r="R1620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1621">
       <c r="A1621" s="2" t="n">
@@ -91237,7 +91245,9 @@
       <c r="Q1621" t="n">
         <v>0</v>
       </c>
-      <c r="R1621" t="inlineStr"/>
+      <c r="R1621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1622">
       <c r="A1622" s="2" t="n">
@@ -91291,7 +91301,279 @@
       <c r="Q1622" t="n">
         <v>0</v>
       </c>
-      <c r="R1622" t="inlineStr"/>
+      <c r="R1622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45456.38541666666</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="F1623" t="n">
+        <v>611.0999755859375</v>
+      </c>
+      <c r="G1623" t="n">
+        <v>5936</v>
+      </c>
+      <c r="H1623" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1623" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1623" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1623" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1623" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1623" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1623" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45456.42708333334</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>616.1500244140625</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>12225</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1624" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45456.51041666666</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>636</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>636</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>4141</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1625" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45456.55208333334</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>636</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>636</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>636</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>636</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>636</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>1601</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1626" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45456.59375</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>634</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>634</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>1501</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1627" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1627" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1627"/>
+  <dimension ref="A1:R1633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91349,7 +91349,7 @@
         <v>24</v>
       </c>
       <c r="O1623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1623" t="n">
         <v>0</v>
@@ -91357,7 +91357,9 @@
       <c r="Q1623" t="n">
         <v>0</v>
       </c>
-      <c r="R1623" t="inlineStr"/>
+      <c r="R1623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1624">
       <c r="A1624" s="2" t="n">
@@ -91411,7 +91413,9 @@
       <c r="Q1624" t="n">
         <v>0</v>
       </c>
-      <c r="R1624" t="inlineStr"/>
+      <c r="R1624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1625">
       <c r="A1625" s="2" t="n">
@@ -91465,7 +91469,9 @@
       <c r="Q1625" t="n">
         <v>0</v>
       </c>
-      <c r="R1625" t="inlineStr"/>
+      <c r="R1625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1626">
       <c r="A1626" s="2" t="n">
@@ -91519,7 +91525,9 @@
       <c r="Q1626" t="n">
         <v>0</v>
       </c>
-      <c r="R1626" t="inlineStr"/>
+      <c r="R1626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1627">
       <c r="A1627" s="2" t="n">
@@ -91573,7 +91581,333 @@
       <c r="Q1627" t="n">
         <v>0</v>
       </c>
-      <c r="R1627" t="inlineStr"/>
+      <c r="R1627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45457.38541666666</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>634</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>634</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>634</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>634</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>634</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1628" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45457.42708333334</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>632.9500122070312</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>1063</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1629" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45457.46875</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>3202</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1630" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45457.51041666666</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>1613</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1631" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45457.55208333334</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>1971</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1632" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45457.59375</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>621.3499755859375</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>1993</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>24</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1633" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1633" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -91637,7 +91637,9 @@
       <c r="Q1628" t="n">
         <v>0</v>
       </c>
-      <c r="R1628" t="inlineStr"/>
+      <c r="R1628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1629">
       <c r="A1629" s="2" t="n">
@@ -91691,7 +91693,9 @@
       <c r="Q1629" t="n">
         <v>0</v>
       </c>
-      <c r="R1629" t="inlineStr"/>
+      <c r="R1629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1630">
       <c r="A1630" s="2" t="n">
@@ -91745,7 +91749,9 @@
       <c r="Q1630" t="n">
         <v>0</v>
       </c>
-      <c r="R1630" t="inlineStr"/>
+      <c r="R1630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1631">
       <c r="A1631" s="2" t="n">
@@ -91799,7 +91805,9 @@
       <c r="Q1631" t="n">
         <v>0</v>
       </c>
-      <c r="R1631" t="inlineStr"/>
+      <c r="R1631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1632">
       <c r="A1632" s="2" t="n">
@@ -91853,7 +91861,9 @@
       <c r="Q1632" t="n">
         <v>0</v>
       </c>
-      <c r="R1632" t="inlineStr"/>
+      <c r="R1632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1633">
       <c r="A1633" s="2" t="n">
@@ -91907,7 +91917,9 @@
       <c r="Q1633" t="n">
         <v>0</v>
       </c>
-      <c r="R1633" t="inlineStr"/>
+      <c r="R1633" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1633"/>
+  <dimension ref="A1:R1639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91921,6 +91921,330 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45461.38541666666</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1634" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45461.42708333334</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>1735</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1635" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45461.46875</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>2033</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1636" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45461.51041666666</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>686</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1637" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45461.59375</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>339</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1638" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45461.63541666666</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>608.9500122070312</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>346</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1639" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1639" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1639"/>
+  <dimension ref="A1:R1644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91973,7 +91973,9 @@
       <c r="Q1634" t="n">
         <v>1</v>
       </c>
-      <c r="R1634" t="inlineStr"/>
+      <c r="R1634" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1635">
       <c r="A1635" s="2" t="n">
@@ -92027,7 +92029,9 @@
       <c r="Q1635" t="n">
         <v>0</v>
       </c>
-      <c r="R1635" t="inlineStr"/>
+      <c r="R1635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1636">
       <c r="A1636" s="2" t="n">
@@ -92081,7 +92085,9 @@
       <c r="Q1636" t="n">
         <v>0</v>
       </c>
-      <c r="R1636" t="inlineStr"/>
+      <c r="R1636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1637">
       <c r="A1637" s="2" t="n">
@@ -92135,7 +92141,9 @@
       <c r="Q1637" t="n">
         <v>0</v>
       </c>
-      <c r="R1637" t="inlineStr"/>
+      <c r="R1637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1638">
       <c r="A1638" s="2" t="n">
@@ -92189,7 +92197,9 @@
       <c r="Q1638" t="n">
         <v>0</v>
       </c>
-      <c r="R1638" t="inlineStr"/>
+      <c r="R1638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1639">
       <c r="A1639" s="2" t="n">
@@ -92243,7 +92253,279 @@
       <c r="Q1639" t="n">
         <v>0</v>
       </c>
-      <c r="R1639" t="inlineStr"/>
+      <c r="R1639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45462.38541666666</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1640" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45462.42708333334</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>596.7999877929688</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>12494</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1641" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45462.46875</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>601.0999755859375</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>2227</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1642" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45462.51041666666</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>605</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>605</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>605</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>3158</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1643" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45462.59375</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>605</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>6342</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1644" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1644" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1644"/>
+  <dimension ref="A1:R1663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92309,7 +92309,9 @@
       <c r="Q1640" t="n">
         <v>0</v>
       </c>
-      <c r="R1640" t="inlineStr"/>
+      <c r="R1640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1641">
       <c r="A1641" s="2" t="n">
@@ -92363,7 +92365,9 @@
       <c r="Q1641" t="n">
         <v>0</v>
       </c>
-      <c r="R1641" t="inlineStr"/>
+      <c r="R1641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1642">
       <c r="A1642" s="2" t="n">
@@ -92417,7 +92421,9 @@
       <c r="Q1642" t="n">
         <v>0</v>
       </c>
-      <c r="R1642" t="inlineStr"/>
+      <c r="R1642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1643">
       <c r="A1643" s="2" t="n">
@@ -92471,7 +92477,9 @@
       <c r="Q1643" t="n">
         <v>0</v>
       </c>
-      <c r="R1643" t="inlineStr"/>
+      <c r="R1643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1644">
       <c r="A1644" s="2" t="n">
@@ -92525,7 +92533,1035 @@
       <c r="Q1644" t="n">
         <v>0</v>
       </c>
-      <c r="R1644" t="inlineStr"/>
+      <c r="R1644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45463.38541666666</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1645" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45463.42708333334</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>4365</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1646" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45463.46875</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>675</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1647" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>1321</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1648" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1648" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1648" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1648" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1648" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1648" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45463.55208333334</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>768</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1649" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1649" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1649" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1649" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1649" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1649" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45463.59375</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>592.8499755859375</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>1304</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1650" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1650" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1650" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1650" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1650" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1650" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45464.38541666666</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>592.7999877929688</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1651" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1651" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1651" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1651" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1651" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1651" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45464.42708333334</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>591.0499877929688</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>1671</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1652" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1652" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1652" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1652" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1652" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1652" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45464.46875</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>588.0499877929688</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>907</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1653" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1653" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1653" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1653" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1653" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1653" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45464.51041666666</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>581</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>581</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>581</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>4099</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1654" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1654" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1654" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1654" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1654" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1654" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45464.55208333334</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>581</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>581</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>581</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1655" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1655" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1655" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1655" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1655" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1655" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45464.59375</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>581</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>581</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>581</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>581</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>581</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>2369</v>
+      </c>
+      <c r="H1656" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1656" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1656" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1656" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1656" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1656" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1656" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45467.38541666666</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1657" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1657" t="n">
+        <v>4815</v>
+      </c>
+      <c r="H1657" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1657" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1657" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1657" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1657" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1657" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1657" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45467.42708333334</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1658" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1658" t="n">
+        <v>859</v>
+      </c>
+      <c r="H1658" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1658" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1658" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1658" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1658" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1658" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1658" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45467.46875</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1659" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1659" t="n">
+        <v>1278</v>
+      </c>
+      <c r="H1659" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1659" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1659" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1659" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1659" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1659" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1659" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45467.51041666666</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>1010</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1660" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45467.55208333334</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>152</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1661" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45467.59375</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>660</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1662" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45467.63541666666</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>610.0499877929688</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>242</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1663" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1663" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1663"/>
+  <dimension ref="A1:R1677"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92589,7 +92589,9 @@
       <c r="Q1645" t="n">
         <v>0</v>
       </c>
-      <c r="R1645" t="inlineStr"/>
+      <c r="R1645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1646">
       <c r="A1646" s="2" t="n">
@@ -92643,7 +92645,9 @@
       <c r="Q1646" t="n">
         <v>0</v>
       </c>
-      <c r="R1646" t="inlineStr"/>
+      <c r="R1646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1647">
       <c r="A1647" s="2" t="n">
@@ -92697,7 +92701,9 @@
       <c r="Q1647" t="n">
         <v>0</v>
       </c>
-      <c r="R1647" t="inlineStr"/>
+      <c r="R1647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1648">
       <c r="A1648" s="2" t="n">
@@ -92751,7 +92757,9 @@
       <c r="Q1648" t="n">
         <v>0</v>
       </c>
-      <c r="R1648" t="inlineStr"/>
+      <c r="R1648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1649">
       <c r="A1649" s="2" t="n">
@@ -92805,7 +92813,9 @@
       <c r="Q1649" t="n">
         <v>0</v>
       </c>
-      <c r="R1649" t="inlineStr"/>
+      <c r="R1649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1650">
       <c r="A1650" s="2" t="n">
@@ -92859,7 +92869,9 @@
       <c r="Q1650" t="n">
         <v>0</v>
       </c>
-      <c r="R1650" t="inlineStr"/>
+      <c r="R1650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1651">
       <c r="A1651" s="2" t="n">
@@ -92913,7 +92925,9 @@
       <c r="Q1651" t="n">
         <v>0</v>
       </c>
-      <c r="R1651" t="inlineStr"/>
+      <c r="R1651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1652">
       <c r="A1652" s="2" t="n">
@@ -92967,7 +92981,9 @@
       <c r="Q1652" t="n">
         <v>0</v>
       </c>
-      <c r="R1652" t="inlineStr"/>
+      <c r="R1652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1653">
       <c r="A1653" s="2" t="n">
@@ -93021,7 +93037,9 @@
       <c r="Q1653" t="n">
         <v>0</v>
       </c>
-      <c r="R1653" t="inlineStr"/>
+      <c r="R1653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1654">
       <c r="A1654" s="2" t="n">
@@ -93067,7 +93085,7 @@
         <v>25</v>
       </c>
       <c r="O1654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1654" t="n">
         <v>0</v>
@@ -93075,7 +93093,9 @@
       <c r="Q1654" t="n">
         <v>0</v>
       </c>
-      <c r="R1654" t="inlineStr"/>
+      <c r="R1654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1655">
       <c r="A1655" s="2" t="n">
@@ -93121,7 +93141,7 @@
         <v>25</v>
       </c>
       <c r="O1655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1655" t="n">
         <v>0</v>
@@ -93129,7 +93149,9 @@
       <c r="Q1655" t="n">
         <v>0</v>
       </c>
-      <c r="R1655" t="inlineStr"/>
+      <c r="R1655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1656">
       <c r="A1656" s="2" t="n">
@@ -93175,7 +93197,7 @@
         <v>25</v>
       </c>
       <c r="O1656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1656" t="n">
         <v>0</v>
@@ -93183,7 +93205,9 @@
       <c r="Q1656" t="n">
         <v>0</v>
       </c>
-      <c r="R1656" t="inlineStr"/>
+      <c r="R1656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1657">
       <c r="A1657" s="2" t="n">
@@ -93237,7 +93261,9 @@
       <c r="Q1657" t="n">
         <v>0</v>
       </c>
-      <c r="R1657" t="inlineStr"/>
+      <c r="R1657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1658">
       <c r="A1658" s="2" t="n">
@@ -93291,7 +93317,9 @@
       <c r="Q1658" t="n">
         <v>0</v>
       </c>
-      <c r="R1658" t="inlineStr"/>
+      <c r="R1658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1659">
       <c r="A1659" s="2" t="n">
@@ -93345,7 +93373,9 @@
       <c r="Q1659" t="n">
         <v>0</v>
       </c>
-      <c r="R1659" t="inlineStr"/>
+      <c r="R1659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1660">
       <c r="A1660" s="2" t="n">
@@ -93399,7 +93429,9 @@
       <c r="Q1660" t="n">
         <v>0</v>
       </c>
-      <c r="R1660" t="inlineStr"/>
+      <c r="R1660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1661">
       <c r="A1661" s="2" t="n">
@@ -93453,7 +93485,9 @@
       <c r="Q1661" t="n">
         <v>0</v>
       </c>
-      <c r="R1661" t="inlineStr"/>
+      <c r="R1661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1662">
       <c r="A1662" s="2" t="n">
@@ -93507,7 +93541,9 @@
       <c r="Q1662" t="n">
         <v>0</v>
       </c>
-      <c r="R1662" t="inlineStr"/>
+      <c r="R1662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1663">
       <c r="A1663" s="2" t="n">
@@ -93561,7 +93597,765 @@
       <c r="Q1663" t="n">
         <v>0</v>
       </c>
-      <c r="R1663" t="inlineStr"/>
+      <c r="R1663" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45468.38541666666</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1664" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45468.42708333334</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>1234</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1665" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45468.46875</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>292</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1666" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1666" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45468.51041666666</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>376</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1667" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1667" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45468.55208333334</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>406</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1668" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45468.59375</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>579</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1669" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45468.63541666666</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>640.5499877929688</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>81</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1670" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45469.38541666666</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1671" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45469.42708333334</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>689</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1672" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45469.46875</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>534</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1673" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45469.51041666666</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>692</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1674" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45469.55208333334</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>766</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1675" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45469.59375</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>761</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1676" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45469.63541666666</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>672.5499877929688</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>268</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1677" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1677" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1677"/>
+  <dimension ref="A1:R1684"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -93653,7 +93653,9 @@
       <c r="Q1664" t="n">
         <v>0</v>
       </c>
-      <c r="R1664" t="inlineStr"/>
+      <c r="R1664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1665">
       <c r="A1665" s="2" t="n">
@@ -93707,7 +93709,9 @@
       <c r="Q1665" t="n">
         <v>1</v>
       </c>
-      <c r="R1665" t="inlineStr"/>
+      <c r="R1665" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1666">
       <c r="A1666" s="2" t="n">
@@ -93761,7 +93765,9 @@
       <c r="Q1666" t="n">
         <v>1</v>
       </c>
-      <c r="R1666" t="inlineStr"/>
+      <c r="R1666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1667">
       <c r="A1667" s="2" t="n">
@@ -93815,7 +93821,9 @@
       <c r="Q1667" t="n">
         <v>1</v>
       </c>
-      <c r="R1667" t="inlineStr"/>
+      <c r="R1667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1668">
       <c r="A1668" s="2" t="n">
@@ -93869,7 +93877,9 @@
       <c r="Q1668" t="n">
         <v>0</v>
       </c>
-      <c r="R1668" t="inlineStr"/>
+      <c r="R1668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1669">
       <c r="A1669" s="2" t="n">
@@ -93923,7 +93933,9 @@
       <c r="Q1669" t="n">
         <v>0</v>
       </c>
-      <c r="R1669" t="inlineStr"/>
+      <c r="R1669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1670">
       <c r="A1670" s="2" t="n">
@@ -93977,7 +93989,9 @@
       <c r="Q1670" t="n">
         <v>0</v>
       </c>
-      <c r="R1670" t="inlineStr"/>
+      <c r="R1670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1671">
       <c r="A1671" s="2" t="n">
@@ -94031,7 +94045,9 @@
       <c r="Q1671" t="n">
         <v>0</v>
       </c>
-      <c r="R1671" t="inlineStr"/>
+      <c r="R1671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1672">
       <c r="A1672" s="2" t="n">
@@ -94085,7 +94101,9 @@
       <c r="Q1672" t="n">
         <v>0</v>
       </c>
-      <c r="R1672" t="inlineStr"/>
+      <c r="R1672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1673">
       <c r="A1673" s="2" t="n">
@@ -94139,7 +94157,9 @@
       <c r="Q1673" t="n">
         <v>0</v>
       </c>
-      <c r="R1673" t="inlineStr"/>
+      <c r="R1673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1674">
       <c r="A1674" s="2" t="n">
@@ -94193,7 +94213,9 @@
       <c r="Q1674" t="n">
         <v>0</v>
       </c>
-      <c r="R1674" t="inlineStr"/>
+      <c r="R1674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1675">
       <c r="A1675" s="2" t="n">
@@ -94247,7 +94269,9 @@
       <c r="Q1675" t="n">
         <v>0</v>
       </c>
-      <c r="R1675" t="inlineStr"/>
+      <c r="R1675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1676">
       <c r="A1676" s="2" t="n">
@@ -94301,7 +94325,9 @@
       <c r="Q1676" t="n">
         <v>0</v>
       </c>
-      <c r="R1676" t="inlineStr"/>
+      <c r="R1676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1677">
       <c r="A1677" s="2" t="n">
@@ -94355,7 +94381,387 @@
       <c r="Q1677" t="n">
         <v>0</v>
       </c>
-      <c r="R1677" t="inlineStr"/>
+      <c r="R1677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45470.38541666666</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>705</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>687</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>37485</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1678" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45470.42708333334</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>11666</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1679" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45470.46875</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>701.5999755859375</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>16022</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1680" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45470.51041666666</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>726</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1681" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45470.55208333334</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>1187</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1682" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45470.59375</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>5815</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1683" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45470.63541666666</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="F1684" t="n">
+        <v>706.1500244140625</v>
+      </c>
+      <c r="G1684" t="n">
+        <v>203</v>
+      </c>
+      <c r="H1684" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1684" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1684" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1684" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1684" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1684" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1684" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1684"/>
+  <dimension ref="A1:R1691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -94437,7 +94437,9 @@
       <c r="Q1678" t="n">
         <v>0</v>
       </c>
-      <c r="R1678" t="inlineStr"/>
+      <c r="R1678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1679">
       <c r="A1679" s="2" t="n">
@@ -94491,7 +94493,9 @@
       <c r="Q1679" t="n">
         <v>0</v>
       </c>
-      <c r="R1679" t="inlineStr"/>
+      <c r="R1679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1680">
       <c r="A1680" s="2" t="n">
@@ -94545,7 +94549,9 @@
       <c r="Q1680" t="n">
         <v>0</v>
       </c>
-      <c r="R1680" t="inlineStr"/>
+      <c r="R1680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1681">
       <c r="A1681" s="2" t="n">
@@ -94599,7 +94605,9 @@
       <c r="Q1681" t="n">
         <v>0</v>
       </c>
-      <c r="R1681" t="inlineStr"/>
+      <c r="R1681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1682">
       <c r="A1682" s="2" t="n">
@@ -94653,7 +94661,9 @@
       <c r="Q1682" t="n">
         <v>0</v>
       </c>
-      <c r="R1682" t="inlineStr"/>
+      <c r="R1682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1683">
       <c r="A1683" s="2" t="n">
@@ -94707,7 +94717,9 @@
       <c r="Q1683" t="n">
         <v>0</v>
       </c>
-      <c r="R1683" t="inlineStr"/>
+      <c r="R1683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1684">
       <c r="A1684" s="2" t="n">
@@ -94761,7 +94773,387 @@
       <c r="Q1684" t="n">
         <v>0</v>
       </c>
-      <c r="R1684" t="inlineStr"/>
+      <c r="R1684" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45471.38541666666</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>721</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1685" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1685" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1685" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1685" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1685" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1685" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1685" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1685" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45471.42708333334</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1686" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1686" t="n">
+        <v>1743</v>
+      </c>
+      <c r="H1686" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1686" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1686" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1686" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1686" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1686" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1686" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45471.46875</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>5875</v>
+      </c>
+      <c r="H1687" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1687" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1687" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1687" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1687" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1687" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1687" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45471.51041666666</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>577</v>
+      </c>
+      <c r="H1688" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1688" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1688" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1688" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1688" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1688" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1688" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45471.55208333334</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>2419</v>
+      </c>
+      <c r="H1689" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1689" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1689" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1689" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1689" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1689" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1689" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45471.59375</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1690" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1690" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1690" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1690" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1690" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1690" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1690" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45471.63541666666</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>741.4500122070312</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>19</v>
+      </c>
+      <c r="H1691" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1691" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1691" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1691" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1691" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1691" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1691" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -94829,7 +94829,9 @@
       <c r="Q1685" t="n">
         <v>0</v>
       </c>
-      <c r="R1685" t="inlineStr"/>
+      <c r="R1685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1686">
       <c r="A1686" s="2" t="n">
@@ -94883,7 +94885,9 @@
       <c r="Q1686" t="n">
         <v>0</v>
       </c>
-      <c r="R1686" t="inlineStr"/>
+      <c r="R1686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1687">
       <c r="A1687" s="2" t="n">
@@ -94937,7 +94941,9 @@
       <c r="Q1687" t="n">
         <v>0</v>
       </c>
-      <c r="R1687" t="inlineStr"/>
+      <c r="R1687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1688">
       <c r="A1688" s="2" t="n">
@@ -94991,7 +94997,9 @@
       <c r="Q1688" t="n">
         <v>0</v>
       </c>
-      <c r="R1688" t="inlineStr"/>
+      <c r="R1688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1689">
       <c r="A1689" s="2" t="n">
@@ -95045,7 +95053,9 @@
       <c r="Q1689" t="n">
         <v>0</v>
       </c>
-      <c r="R1689" t="inlineStr"/>
+      <c r="R1689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1690">
       <c r="A1690" s="2" t="n">
@@ -95099,7 +95109,9 @@
       <c r="Q1690" t="n">
         <v>0</v>
       </c>
-      <c r="R1690" t="inlineStr"/>
+      <c r="R1690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1691">
       <c r="A1691" s="2" t="n">
@@ -95153,7 +95165,9 @@
       <c r="Q1691" t="n">
         <v>0</v>
       </c>
-      <c r="R1691" t="inlineStr"/>
+      <c r="R1691" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1691"/>
+  <dimension ref="A1:R1698"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95169,6 +95169,384 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45474.38541666666</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>704.4000244140625</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>762.9500122070312</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>762.9500122070312</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>33762</v>
+      </c>
+      <c r="H1692" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1692" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1692" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1692" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1692" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1692" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1692" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45474.42708333334</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>762.9000244140625</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>740</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F1693" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G1693" t="n">
+        <v>14140</v>
+      </c>
+      <c r="H1693" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1693" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1693" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1693" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1693" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1693" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1693" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45474.46875</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>754.2000122070312</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>778.4500122070312</v>
+      </c>
+      <c r="F1694" t="n">
+        <v>778.4500122070312</v>
+      </c>
+      <c r="G1694" t="n">
+        <v>12528</v>
+      </c>
+      <c r="H1694" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1694" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1694" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1694" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1694" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1694" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1694" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45474.51041666666</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>778.4500122070312</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>772.9500122070312</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F1695" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G1695" t="n">
+        <v>4359</v>
+      </c>
+      <c r="H1695" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1695" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1695" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1695" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1695" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1695" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1695" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45474.55208333334</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>2107</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1696" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45474.59375</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>394</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1697" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45474.63541666666</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>778.5</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>766</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>777.6500244140625</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>777.6500244140625</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>3256</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1698" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1698" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1698"/>
+  <dimension ref="A1:R1705"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95213,7 +95213,7 @@
         <v>27</v>
       </c>
       <c r="O1692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1692" t="n">
         <v>0</v>
@@ -95221,7 +95221,9 @@
       <c r="Q1692" t="n">
         <v>0</v>
       </c>
-      <c r="R1692" t="inlineStr"/>
+      <c r="R1692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" s="2" t="n">
@@ -95275,7 +95277,9 @@
       <c r="Q1693" t="n">
         <v>0</v>
       </c>
-      <c r="R1693" t="inlineStr"/>
+      <c r="R1693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1694">
       <c r="A1694" s="2" t="n">
@@ -95329,7 +95333,9 @@
       <c r="Q1694" t="n">
         <v>0</v>
       </c>
-      <c r="R1694" t="inlineStr"/>
+      <c r="R1694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1695">
       <c r="A1695" s="2" t="n">
@@ -95383,7 +95389,9 @@
       <c r="Q1695" t="n">
         <v>0</v>
       </c>
-      <c r="R1695" t="inlineStr"/>
+      <c r="R1695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1696">
       <c r="A1696" s="2" t="n">
@@ -95437,7 +95445,9 @@
       <c r="Q1696" t="n">
         <v>0</v>
       </c>
-      <c r="R1696" t="inlineStr"/>
+      <c r="R1696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1697">
       <c r="A1697" s="2" t="n">
@@ -95491,7 +95501,9 @@
       <c r="Q1697" t="n">
         <v>0</v>
       </c>
-      <c r="R1697" t="inlineStr"/>
+      <c r="R1697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1698">
       <c r="A1698" s="2" t="n">
@@ -95545,7 +95557,387 @@
       <c r="Q1698" t="n">
         <v>0</v>
       </c>
-      <c r="R1698" t="inlineStr"/>
+      <c r="R1698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45475.38541666666</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>777.5</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>776.9500122070312</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1699" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45475.42708333334</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>2453</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1700" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45475.46875</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>7196</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1701" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45475.51041666666</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>800</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>809.0999755859375</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>809.0999755859375</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>10801</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1702" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45475.55208333334</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>809.0999755859375</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>809.0999755859375</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>11188</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1703" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1703" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45475.59375</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>810</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>2315</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1704" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45475.63541666666</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>816.5</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>1096</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1705" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1705" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1705"/>
+  <dimension ref="A1:R1711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95605,7 +95605,7 @@
         <v>27</v>
       </c>
       <c r="O1699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1699" t="n">
         <v>0</v>
@@ -95613,7 +95613,9 @@
       <c r="Q1699" t="n">
         <v>0</v>
       </c>
-      <c r="R1699" t="inlineStr"/>
+      <c r="R1699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1700">
       <c r="A1700" s="2" t="n">
@@ -95659,7 +95661,7 @@
         <v>27</v>
       </c>
       <c r="O1700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1700" t="n">
         <v>0</v>
@@ -95667,7 +95669,9 @@
       <c r="Q1700" t="n">
         <v>0</v>
       </c>
-      <c r="R1700" t="inlineStr"/>
+      <c r="R1700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1701">
       <c r="A1701" s="2" t="n">
@@ -95713,7 +95717,7 @@
         <v>27</v>
       </c>
       <c r="O1701" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1701" t="n">
         <v>0</v>
@@ -95721,7 +95725,9 @@
       <c r="Q1701" t="n">
         <v>0</v>
       </c>
-      <c r="R1701" t="inlineStr"/>
+      <c r="R1701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1702">
       <c r="A1702" s="2" t="n">
@@ -95775,7 +95781,9 @@
       <c r="Q1702" t="n">
         <v>0</v>
       </c>
-      <c r="R1702" t="inlineStr"/>
+      <c r="R1702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" s="2" t="n">
@@ -95829,7 +95837,9 @@
       <c r="Q1703" t="n">
         <v>1</v>
       </c>
-      <c r="R1703" t="inlineStr"/>
+      <c r="R1703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" s="2" t="n">
@@ -95883,7 +95893,9 @@
       <c r="Q1704" t="n">
         <v>0</v>
       </c>
-      <c r="R1704" t="inlineStr"/>
+      <c r="R1704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1705">
       <c r="A1705" s="2" t="n">
@@ -95937,7 +95949,333 @@
       <c r="Q1705" t="n">
         <v>0</v>
       </c>
-      <c r="R1705" t="inlineStr"/>
+      <c r="R1705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45476.38541666666</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1706" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45476.42708333334</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>2945</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1707" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45476.46875</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>662</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1708" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45476.51041666666</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>2843</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1709" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45476.55208333334</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>2515</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1710" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1710" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45476.59375</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>800.2000122070312</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>1122</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1711" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1711" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1711" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1711"/>
+  <dimension ref="A1:R1717"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95773,7 +95773,7 @@
         <v>27</v>
       </c>
       <c r="O1702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1702" t="n">
         <v>0</v>
@@ -95829,7 +95829,7 @@
         <v>27</v>
       </c>
       <c r="O1703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1703" t="n">
         <v>0</v>
@@ -95885,7 +95885,7 @@
         <v>27</v>
       </c>
       <c r="O1704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1704" t="n">
         <v>0</v>
@@ -95941,7 +95941,7 @@
         <v>27</v>
       </c>
       <c r="O1705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1705" t="n">
         <v>0</v>
@@ -96005,7 +96005,9 @@
       <c r="Q1706" t="n">
         <v>0</v>
       </c>
-      <c r="R1706" t="inlineStr"/>
+      <c r="R1706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1707">
       <c r="A1707" s="2" t="n">
@@ -96059,7 +96061,9 @@
       <c r="Q1707" t="n">
         <v>0</v>
       </c>
-      <c r="R1707" t="inlineStr"/>
+      <c r="R1707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1708">
       <c r="A1708" s="2" t="n">
@@ -96113,7 +96117,9 @@
       <c r="Q1708" t="n">
         <v>0</v>
       </c>
-      <c r="R1708" t="inlineStr"/>
+      <c r="R1708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1709">
       <c r="A1709" s="2" t="n">
@@ -96167,7 +96173,9 @@
       <c r="Q1709" t="n">
         <v>0</v>
       </c>
-      <c r="R1709" t="inlineStr"/>
+      <c r="R1709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1710">
       <c r="A1710" s="2" t="n">
@@ -96221,7 +96229,9 @@
       <c r="Q1710" t="n">
         <v>2</v>
       </c>
-      <c r="R1710" t="inlineStr"/>
+      <c r="R1710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1711">
       <c r="A1711" s="2" t="n">
@@ -96275,7 +96285,333 @@
       <c r="Q1711" t="n">
         <v>2</v>
       </c>
-      <c r="R1711" t="inlineStr"/>
+      <c r="R1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45477.38541666666</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1712" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1712" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45477.42708333334</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>846</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1713" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1713" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45477.46875</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>551</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1714" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45477.51041666666</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>837</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1715" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45477.55208333334</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>1137</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1716" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1716" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45477.59375</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>784.2000122070312</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>392</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1717" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1717" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1717"/>
+  <dimension ref="A1:R1723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96341,7 +96341,9 @@
       <c r="Q1712" t="n">
         <v>2</v>
       </c>
-      <c r="R1712" t="inlineStr"/>
+      <c r="R1712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1713">
       <c r="A1713" s="2" t="n">
@@ -96395,7 +96397,9 @@
       <c r="Q1713" t="n">
         <v>2</v>
       </c>
-      <c r="R1713" t="inlineStr"/>
+      <c r="R1713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1714">
       <c r="A1714" s="2" t="n">
@@ -96449,7 +96453,9 @@
       <c r="Q1714" t="n">
         <v>2</v>
       </c>
-      <c r="R1714" t="inlineStr"/>
+      <c r="R1714" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1715">
       <c r="A1715" s="2" t="n">
@@ -96503,7 +96509,9 @@
       <c r="Q1715" t="n">
         <v>2</v>
       </c>
-      <c r="R1715" t="inlineStr"/>
+      <c r="R1715" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1716">
       <c r="A1716" s="2" t="n">
@@ -96557,7 +96565,9 @@
       <c r="Q1716" t="n">
         <v>2</v>
       </c>
-      <c r="R1716" t="inlineStr"/>
+      <c r="R1716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1717">
       <c r="A1717" s="2" t="n">
@@ -96611,7 +96621,333 @@
       <c r="Q1717" t="n">
         <v>0</v>
       </c>
-      <c r="R1717" t="inlineStr"/>
+      <c r="R1717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45478.38541666666</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1718" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45478.42708333334</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>1006</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1719" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45478.46875</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1720" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1720" t="n">
+        <v>622</v>
+      </c>
+      <c r="H1720" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1720" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1720" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1720" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1720" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1720" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1720" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45478.51041666666</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1721" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1721" t="n">
+        <v>320</v>
+      </c>
+      <c r="H1721" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1721" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1721" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1721" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1721" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1721" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1721" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45478.55208333334</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1722" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1722" t="n">
+        <v>562</v>
+      </c>
+      <c r="H1722" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1722" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1722" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1722" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1722" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1722" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1722" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45478.59375</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>768.5499877929688</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>1498</v>
+      </c>
+      <c r="H1723" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1723" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1723" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1723" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1723" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1723" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1723" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1723" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1723"/>
+  <dimension ref="A1:R1729"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -96677,7 +96677,9 @@
       <c r="Q1718" t="n">
         <v>0</v>
       </c>
-      <c r="R1718" t="inlineStr"/>
+      <c r="R1718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1719">
       <c r="A1719" s="2" t="n">
@@ -96731,7 +96733,9 @@
       <c r="Q1719" t="n">
         <v>0</v>
       </c>
-      <c r="R1719" t="inlineStr"/>
+      <c r="R1719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1720">
       <c r="A1720" s="2" t="n">
@@ -96785,7 +96789,9 @@
       <c r="Q1720" t="n">
         <v>0</v>
       </c>
-      <c r="R1720" t="inlineStr"/>
+      <c r="R1720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1721">
       <c r="A1721" s="2" t="n">
@@ -96839,7 +96845,9 @@
       <c r="Q1721" t="n">
         <v>0</v>
       </c>
-      <c r="R1721" t="inlineStr"/>
+      <c r="R1721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" s="2" t="n">
@@ -96893,7 +96901,9 @@
       <c r="Q1722" t="n">
         <v>0</v>
       </c>
-      <c r="R1722" t="inlineStr"/>
+      <c r="R1722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1723">
       <c r="A1723" s="2" t="n">
@@ -96947,7 +96957,333 @@
       <c r="Q1723" t="n">
         <v>0</v>
       </c>
-      <c r="R1723" t="inlineStr"/>
+      <c r="R1723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45481.38541666666</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1724" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1724" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1724" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1724" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1724" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1724" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1724" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45481.42708333334</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>1400</v>
+      </c>
+      <c r="H1725" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1725" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1725" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1725" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1725" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1725" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1725" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45481.46875</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>993</v>
+      </c>
+      <c r="H1726" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1726" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1726" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1726" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1726" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1726" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1726" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45481.51041666666</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>478</v>
+      </c>
+      <c r="H1727" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1727" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1727" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1727" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1727" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1727" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1727" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45481.55208333334</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>309</v>
+      </c>
+      <c r="H1728" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1728" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1728" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1728" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1728" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1728" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1728" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45481.59375</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="F1729" t="n">
+        <v>753.2000122070312</v>
+      </c>
+      <c r="G1729" t="n">
+        <v>367</v>
+      </c>
+      <c r="H1729" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1729" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1729" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1729" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1729" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1729" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1729" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1729" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1729"/>
+  <dimension ref="A1:R1734"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97013,7 +97013,9 @@
       <c r="Q1724" t="n">
         <v>0</v>
       </c>
-      <c r="R1724" t="inlineStr"/>
+      <c r="R1724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1725">
       <c r="A1725" s="2" t="n">
@@ -97067,7 +97069,9 @@
       <c r="Q1725" t="n">
         <v>0</v>
       </c>
-      <c r="R1725" t="inlineStr"/>
+      <c r="R1725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1726">
       <c r="A1726" s="2" t="n">
@@ -97121,7 +97125,9 @@
       <c r="Q1726" t="n">
         <v>0</v>
       </c>
-      <c r="R1726" t="inlineStr"/>
+      <c r="R1726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1727">
       <c r="A1727" s="2" t="n">
@@ -97175,7 +97181,9 @@
       <c r="Q1727" t="n">
         <v>0</v>
       </c>
-      <c r="R1727" t="inlineStr"/>
+      <c r="R1727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1728">
       <c r="A1728" s="2" t="n">
@@ -97229,7 +97237,9 @@
       <c r="Q1728" t="n">
         <v>0</v>
       </c>
-      <c r="R1728" t="inlineStr"/>
+      <c r="R1728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1729">
       <c r="A1729" s="2" t="n">
@@ -97283,7 +97293,279 @@
       <c r="Q1729" t="n">
         <v>0</v>
       </c>
-      <c r="R1729" t="inlineStr"/>
+      <c r="R1729" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45482.42708333334</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1730" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1730" t="n">
+        <v>1296</v>
+      </c>
+      <c r="H1730" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1730" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1730" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1730" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1730" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1730" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1730" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45482.46875</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1731" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1731" t="n">
+        <v>180</v>
+      </c>
+      <c r="H1731" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1731" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1731" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1731" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1731" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1731" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1731" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45482.51041666666</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>284</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1732" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45482.55208333334</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>632</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1733" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45482.59375</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>738.1500244140625</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>383</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1734" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1734" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1734"/>
+  <dimension ref="A1:R1739"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97349,7 +97349,9 @@
       <c r="Q1730" t="n">
         <v>0</v>
       </c>
-      <c r="R1730" t="inlineStr"/>
+      <c r="R1730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1731">
       <c r="A1731" s="2" t="n">
@@ -97403,7 +97405,9 @@
       <c r="Q1731" t="n">
         <v>0</v>
       </c>
-      <c r="R1731" t="inlineStr"/>
+      <c r="R1731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1732">
       <c r="A1732" s="2" t="n">
@@ -97457,7 +97461,9 @@
       <c r="Q1732" t="n">
         <v>0</v>
       </c>
-      <c r="R1732" t="inlineStr"/>
+      <c r="R1732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1733">
       <c r="A1733" s="2" t="n">
@@ -97511,7 +97517,9 @@
       <c r="Q1733" t="n">
         <v>0</v>
       </c>
-      <c r="R1733" t="inlineStr"/>
+      <c r="R1733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1734">
       <c r="A1734" s="2" t="n">
@@ -97565,7 +97573,279 @@
       <c r="Q1734" t="n">
         <v>0</v>
       </c>
-      <c r="R1734" t="inlineStr"/>
+      <c r="R1734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45483.38541666666</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1735" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45483.42708333334</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>553</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1736" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45483.46875</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>374</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1737" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45483.51041666666</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>497</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1738" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45483.59375</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>723.4000244140625</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>1054</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1739" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1739" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1739"/>
+  <dimension ref="A1:R1745"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97629,7 +97629,9 @@
       <c r="Q1735" t="n">
         <v>0</v>
       </c>
-      <c r="R1735" t="inlineStr"/>
+      <c r="R1735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1736">
       <c r="A1736" s="2" t="n">
@@ -97683,7 +97685,9 @@
       <c r="Q1736" t="n">
         <v>0</v>
       </c>
-      <c r="R1736" t="inlineStr"/>
+      <c r="R1736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1737">
       <c r="A1737" s="2" t="n">
@@ -97737,7 +97741,9 @@
       <c r="Q1737" t="n">
         <v>0</v>
       </c>
-      <c r="R1737" t="inlineStr"/>
+      <c r="R1737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1738">
       <c r="A1738" s="2" t="n">
@@ -97791,7 +97797,9 @@
       <c r="Q1738" t="n">
         <v>0</v>
       </c>
-      <c r="R1738" t="inlineStr"/>
+      <c r="R1738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" s="2" t="n">
@@ -97845,7 +97853,333 @@
       <c r="Q1739" t="n">
         <v>0</v>
       </c>
-      <c r="R1739" t="inlineStr"/>
+      <c r="R1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45484.38541666666</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>713.5</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>6716</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1740" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45484.42708333334</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>720</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>720</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>720</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>720</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>720</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>4907</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1741" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45484.46875</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>725.5</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>3724</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1742" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45484.51041666666</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>737.7999877929688</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>3311</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1743" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45484.55208333334</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>4636</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1744" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45484.59375</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>993</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1745" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1745" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1745"/>
+  <dimension ref="A1:R1751"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -97901,7 +97901,7 @@
         <v>28</v>
       </c>
       <c r="O1740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1740" t="n">
         <v>0</v>
@@ -97909,7 +97909,9 @@
       <c r="Q1740" t="n">
         <v>0</v>
       </c>
-      <c r="R1740" t="inlineStr"/>
+      <c r="R1740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1741">
       <c r="A1741" s="2" t="n">
@@ -97963,7 +97965,9 @@
       <c r="Q1741" t="n">
         <v>0</v>
       </c>
-      <c r="R1741" t="inlineStr"/>
+      <c r="R1741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1742">
       <c r="A1742" s="2" t="n">
@@ -98017,7 +98021,9 @@
       <c r="Q1742" t="n">
         <v>0</v>
       </c>
-      <c r="R1742" t="inlineStr"/>
+      <c r="R1742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1743">
       <c r="A1743" s="2" t="n">
@@ -98071,7 +98077,9 @@
       <c r="Q1743" t="n">
         <v>0</v>
       </c>
-      <c r="R1743" t="inlineStr"/>
+      <c r="R1743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1744">
       <c r="A1744" s="2" t="n">
@@ -98125,7 +98133,9 @@
       <c r="Q1744" t="n">
         <v>0</v>
       </c>
-      <c r="R1744" t="inlineStr"/>
+      <c r="R1744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1745">
       <c r="A1745" s="2" t="n">
@@ -98179,7 +98189,333 @@
       <c r="Q1745" t="n">
         <v>0</v>
       </c>
-      <c r="R1745" t="inlineStr"/>
+      <c r="R1745" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45485.38541666666</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45485.42708333334</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>5321</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1747" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45485.46875</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>746.5999755859375</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>2388</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1748" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45485.51041666666</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>737.8499755859375</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>1713</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1749" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45485.55208333334</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>3078</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1750" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45485.59375</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>723.0999755859375</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>1055</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1751" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1751" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -98245,7 +98245,9 @@
       <c r="Q1746" t="n">
         <v>0</v>
       </c>
-      <c r="R1746" t="inlineStr"/>
+      <c r="R1746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1747">
       <c r="A1747" s="2" t="n">
@@ -98299,7 +98301,9 @@
       <c r="Q1747" t="n">
         <v>0</v>
       </c>
-      <c r="R1747" t="inlineStr"/>
+      <c r="R1747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1748">
       <c r="A1748" s="2" t="n">
@@ -98353,7 +98357,9 @@
       <c r="Q1748" t="n">
         <v>0</v>
       </c>
-      <c r="R1748" t="inlineStr"/>
+      <c r="R1748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1749">
       <c r="A1749" s="2" t="n">
@@ -98407,7 +98413,9 @@
       <c r="Q1749" t="n">
         <v>0</v>
       </c>
-      <c r="R1749" t="inlineStr"/>
+      <c r="R1749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1750">
       <c r="A1750" s="2" t="n">
@@ -98461,7 +98469,9 @@
       <c r="Q1750" t="n">
         <v>0</v>
       </c>
-      <c r="R1750" t="inlineStr"/>
+      <c r="R1750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1751">
       <c r="A1751" s="2" t="n">
@@ -98515,7 +98525,9 @@
       <c r="Q1751" t="n">
         <v>0</v>
       </c>
-      <c r="R1751" t="inlineStr"/>
+      <c r="R1751" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1751"/>
+  <dimension ref="A1:R1756"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98237,7 +98237,7 @@
         <v>28</v>
       </c>
       <c r="O1746" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1746" t="n">
         <v>0</v>
@@ -98528,6 +98528,276 @@
       <c r="R1751" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45491.38541666666</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>714</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>714</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>714</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>714</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>714</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1752" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45491.42708333334</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>711</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>711</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>711</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>711</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>711</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>1292</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1753" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45491.46875</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>1593</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1754" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45491.55208333334</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>691.2000122070312</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>694</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>691.2000122070312</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>694</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>694</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>1743</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1755" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45491.59375</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>694</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>694</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>694</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>694</v>
+      </c>
+      <c r="F1756" t="n">
+        <v>694</v>
+      </c>
+      <c r="G1756" t="n">
+        <v>1203</v>
+      </c>
+      <c r="H1756" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1756" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1756" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1756" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1756" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1756" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1756" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1756" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1756"/>
+  <dimension ref="A1:R1762"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98293,7 +98293,7 @@
         <v>28</v>
       </c>
       <c r="O1747" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1747" t="n">
         <v>0</v>
@@ -98349,7 +98349,7 @@
         <v>28</v>
       </c>
       <c r="O1748" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1748" t="n">
         <v>0</v>
@@ -98581,7 +98581,9 @@
       <c r="Q1752" t="n">
         <v>0</v>
       </c>
-      <c r="R1752" t="inlineStr"/>
+      <c r="R1752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1753">
       <c r="A1753" s="2" t="n">
@@ -98635,7 +98637,9 @@
       <c r="Q1753" t="n">
         <v>0</v>
       </c>
-      <c r="R1753" t="inlineStr"/>
+      <c r="R1753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1754">
       <c r="A1754" s="2" t="n">
@@ -98689,7 +98693,9 @@
       <c r="Q1754" t="n">
         <v>0</v>
       </c>
-      <c r="R1754" t="inlineStr"/>
+      <c r="R1754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1755">
       <c r="A1755" s="2" t="n">
@@ -98743,7 +98749,9 @@
       <c r="Q1755" t="n">
         <v>0</v>
       </c>
-      <c r="R1755" t="inlineStr"/>
+      <c r="R1755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1756">
       <c r="A1756" s="2" t="n">
@@ -98797,7 +98805,333 @@
       <c r="Q1756" t="n">
         <v>0</v>
       </c>
-      <c r="R1756" t="inlineStr"/>
+      <c r="R1756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45492.38541666666</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1757" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1757" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1757" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1757" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1757" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1757" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1757" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1757" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1757" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45492.42708333334</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1758" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1758" t="n">
+        <v>930</v>
+      </c>
+      <c r="H1758" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1758" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1758" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1758" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1758" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1758" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1758" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1758" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45492.46875</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>1675</v>
+      </c>
+      <c r="H1759" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1759" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1759" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1759" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1759" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1759" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1759" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1759" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45492.51041666666</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>595</v>
+      </c>
+      <c r="H1760" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1760" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1760" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1760" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1760" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1760" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1760" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45492.55208333334</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>226</v>
+      </c>
+      <c r="H1761" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1761" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1761" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1761" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1761" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1761" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1761" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45492.59375</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>1505</v>
+      </c>
+      <c r="H1762" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1762" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1762" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1762" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1762" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1762" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1762" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1762" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1762"/>
+  <dimension ref="A1:R1768"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -98861,7 +98861,9 @@
       <c r="Q1757" t="n">
         <v>2</v>
       </c>
-      <c r="R1757" t="inlineStr"/>
+      <c r="R1757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1758">
       <c r="A1758" s="2" t="n">
@@ -98915,7 +98917,9 @@
       <c r="Q1758" t="n">
         <v>2</v>
       </c>
-      <c r="R1758" t="inlineStr"/>
+      <c r="R1758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1759">
       <c r="A1759" s="2" t="n">
@@ -98969,7 +98973,9 @@
       <c r="Q1759" t="n">
         <v>2</v>
       </c>
-      <c r="R1759" t="inlineStr"/>
+      <c r="R1759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1760">
       <c r="A1760" s="2" t="n">
@@ -99023,7 +99029,9 @@
       <c r="Q1760" t="n">
         <v>0</v>
       </c>
-      <c r="R1760" t="inlineStr"/>
+      <c r="R1760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1761">
       <c r="A1761" s="2" t="n">
@@ -99077,7 +99085,9 @@
       <c r="Q1761" t="n">
         <v>0</v>
       </c>
-      <c r="R1761" t="inlineStr"/>
+      <c r="R1761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1762">
       <c r="A1762" s="2" t="n">
@@ -99131,7 +99141,333 @@
       <c r="Q1762" t="n">
         <v>0</v>
       </c>
-      <c r="R1762" t="inlineStr"/>
+      <c r="R1762" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45495.38541666666</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>688</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>688</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>688</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>688</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>688</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1763" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1763" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1763" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1763" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1763" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1763" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1763" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45495.42708333334</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>687</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>687</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>687</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>687</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>376</v>
+      </c>
+      <c r="H1764" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1764" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1764" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1764" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1764" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1764" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1764" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45495.46875</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>686</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1765" t="n">
+        <v>686</v>
+      </c>
+      <c r="G1765" t="n">
+        <v>415</v>
+      </c>
+      <c r="H1765" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1765" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1765" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1765" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1765" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1765" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1765" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45495.51041666666</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1766" t="n">
+        <v>675</v>
+      </c>
+      <c r="G1766" t="n">
+        <v>535</v>
+      </c>
+      <c r="H1766" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1766" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1766" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1766" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1766" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1766" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1766" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45495.55208333334</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1767" t="n">
+        <v>675</v>
+      </c>
+      <c r="G1767" t="n">
+        <v>1229</v>
+      </c>
+      <c r="H1767" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1767" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1767" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1767" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1767" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1767" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1767" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45495.59375</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>675</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>675</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>675</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>675</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>675</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>777</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1768" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1768" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1768"/>
+  <dimension ref="A1:R1774"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99197,7 +99197,9 @@
       <c r="Q1763" t="n">
         <v>0</v>
       </c>
-      <c r="R1763" t="inlineStr"/>
+      <c r="R1763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1764">
       <c r="A1764" s="2" t="n">
@@ -99251,7 +99253,9 @@
       <c r="Q1764" t="n">
         <v>0</v>
       </c>
-      <c r="R1764" t="inlineStr"/>
+      <c r="R1764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1765">
       <c r="A1765" s="2" t="n">
@@ -99305,7 +99309,9 @@
       <c r="Q1765" t="n">
         <v>0</v>
       </c>
-      <c r="R1765" t="inlineStr"/>
+      <c r="R1765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1766">
       <c r="A1766" s="2" t="n">
@@ -99359,7 +99365,9 @@
       <c r="Q1766" t="n">
         <v>0</v>
       </c>
-      <c r="R1766" t="inlineStr"/>
+      <c r="R1766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1767">
       <c r="A1767" s="2" t="n">
@@ -99413,7 +99421,9 @@
       <c r="Q1767" t="n">
         <v>0</v>
       </c>
-      <c r="R1767" t="inlineStr"/>
+      <c r="R1767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1768">
       <c r="A1768" s="2" t="n">
@@ -99467,7 +99477,333 @@
       <c r="Q1768" t="n">
         <v>0</v>
       </c>
-      <c r="R1768" t="inlineStr"/>
+      <c r="R1768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45496.38541666666</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1769" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45496.42708333334</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>2204</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1770" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45496.46875</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>688.5</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>1359</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1771" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45496.51041666666</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>687</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>687</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>687</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>687</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>2180</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1772" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45496.55208333334</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>687</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>687</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>687</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>687</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>687</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>613</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1773" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45496.59375</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>686</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>686</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>686</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>980</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1774" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1774" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1774"/>
+  <dimension ref="A1:R1780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99357,7 +99357,7 @@
         <v>30</v>
       </c>
       <c r="O1766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1766" t="n">
         <v>0</v>
@@ -99413,7 +99413,7 @@
         <v>30</v>
       </c>
       <c r="O1767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1767" t="n">
         <v>0</v>
@@ -99469,7 +99469,7 @@
         <v>30</v>
       </c>
       <c r="O1768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1768" t="n">
         <v>0</v>
@@ -99533,7 +99533,9 @@
       <c r="Q1769" t="n">
         <v>0</v>
       </c>
-      <c r="R1769" t="inlineStr"/>
+      <c r="R1769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1770">
       <c r="A1770" s="2" t="n">
@@ -99587,7 +99589,9 @@
       <c r="Q1770" t="n">
         <v>0</v>
       </c>
-      <c r="R1770" t="inlineStr"/>
+      <c r="R1770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1771">
       <c r="A1771" s="2" t="n">
@@ -99641,7 +99645,9 @@
       <c r="Q1771" t="n">
         <v>0</v>
       </c>
-      <c r="R1771" t="inlineStr"/>
+      <c r="R1771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1772">
       <c r="A1772" s="2" t="n">
@@ -99695,7 +99701,9 @@
       <c r="Q1772" t="n">
         <v>0</v>
       </c>
-      <c r="R1772" t="inlineStr"/>
+      <c r="R1772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" s="2" t="n">
@@ -99749,7 +99757,9 @@
       <c r="Q1773" t="n">
         <v>0</v>
       </c>
-      <c r="R1773" t="inlineStr"/>
+      <c r="R1773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1774">
       <c r="A1774" s="2" t="n">
@@ -99803,7 +99813,333 @@
       <c r="Q1774" t="n">
         <v>0</v>
       </c>
-      <c r="R1774" t="inlineStr"/>
+      <c r="R1774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45497.38541666666</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>699</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>699</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>699</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>699</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1775" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45497.42708333334</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>699</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>699</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>699</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>699</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>1085</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1776" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45497.46875</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>1539</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1777" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45497.51041666666</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>2153</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1778" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1778" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45497.55208333334</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>999</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1779" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1779" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45497.59375</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>699.7000122070312</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>329</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1780"/>
+  <dimension ref="A1:R1786"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99869,7 +99869,9 @@
       <c r="Q1775" t="n">
         <v>0</v>
       </c>
-      <c r="R1775" t="inlineStr"/>
+      <c r="R1775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1776">
       <c r="A1776" s="2" t="n">
@@ -99923,7 +99925,9 @@
       <c r="Q1776" t="n">
         <v>0</v>
       </c>
-      <c r="R1776" t="inlineStr"/>
+      <c r="R1776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1777">
       <c r="A1777" s="2" t="n">
@@ -99977,7 +99981,9 @@
       <c r="Q1777" t="n">
         <v>0</v>
       </c>
-      <c r="R1777" t="inlineStr"/>
+      <c r="R1777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1778">
       <c r="A1778" s="2" t="n">
@@ -100031,7 +100037,9 @@
       <c r="Q1778" t="n">
         <v>1</v>
       </c>
-      <c r="R1778" t="inlineStr"/>
+      <c r="R1778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1779">
       <c r="A1779" s="2" t="n">
@@ -100085,7 +100093,9 @@
       <c r="Q1779" t="n">
         <v>1</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1780">
       <c r="A1780" s="2" t="n">
@@ -100139,7 +100149,333 @@
       <c r="Q1780" t="n">
         <v>0</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45498.38541666666</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>710.9000244140625</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45498.42708333334</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>708</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>708</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>708</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>708</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>708</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>1376</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45498.46875</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>708</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>708</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>708</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>708</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>708</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>641</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45498.51041666666</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>705</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>705</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>705</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>705</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>467</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45498.55208333334</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>705</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>705</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>705</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>705</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>705</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>253</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45498.59375</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>703</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>703</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>703</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>703</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>703</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>942</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1786"/>
+  <dimension ref="A1:R1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100197,7 +100197,7 @@
         <v>30</v>
       </c>
       <c r="O1781" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1781" t="n">
         <v>0</v>
@@ -100205,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>0</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100259,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100313,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100367,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100421,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100475,7 +100485,333 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45499.38541666666</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>702</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>702</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>702</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>702</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45499.42708333334</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>701</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>701</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>701</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>701</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>701</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>266</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45499.46875</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>292</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45499.51041666666</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>699</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>699</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>699</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>699</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>699</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>146</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45499.55208333334</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>695</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>695</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>695</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>695</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>695</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>672</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45499.59375</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>693</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>693</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>693</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>693</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>693</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>1140</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1792"/>
+  <dimension ref="A1:R1797"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100541,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1788">
       <c r="A1788" s="2" t="n">
@@ -100595,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100649,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100703,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100757,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100811,7 +100821,279 @@
       <c r="Q1792" t="n">
         <v>2</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45502.38541666666</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>691</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>691</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>691</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>691</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>691</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45502.42708333334</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>690</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>690</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>690</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>690</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>1326</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45502.46875</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>680.2000122070312</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>3022</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45502.51041666666</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>680</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>680</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>680</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>1529</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45502.55208333334</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>700</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>700</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>700</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>700</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>4972</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1797"/>
+  <dimension ref="A1:R1804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100877,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100931,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100985,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101039,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101093,7 +101101,387 @@
       <c r="Q1797" t="n">
         <v>0</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45502.59375</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>706.8499755859375</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45503.38541666666</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>1168</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45503.42708333334</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>1075</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45503.46875</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>1335</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45503.51041666666</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>845</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45503.55208333334</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>605</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45503.59375</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>720.9500122070312</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>359</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1804"/>
+  <dimension ref="A1:R1810"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101037,7 +101037,7 @@
         <v>31</v>
       </c>
       <c r="O1796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1796" t="n">
         <v>0</v>
@@ -101157,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101211,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101265,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101319,7 +101325,9 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1802">
       <c r="A1802" s="2" t="n">
@@ -101373,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101427,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101481,7 +101493,333 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45504.38541666666</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45504.42708333334</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>1543</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45504.46875</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>899</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45504.51041666666</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>373</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45504.55208333334</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>780</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45504.59375</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>735.3499755859375</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>289</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1810"/>
+  <dimension ref="A1:R1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101549,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101603,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101657,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>1</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101711,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101765,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101819,7 +101829,333 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45505.38541666666</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45505.42708333334</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>995</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45505.46875</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>3292</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45505.51041666666</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>1328</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45505.55208333334</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>722</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45505.59375</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>8768</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1816"/>
+  <dimension ref="A1:R1822"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101885,7 +101885,9 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1812">
       <c r="A1812" s="2" t="n">
@@ -101939,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101993,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102047,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102101,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102155,7 +102165,333 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45506.38541666666</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>754.9500122070312</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45506.42708333334</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>754.9000244140625</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>3447</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45506.46875</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>754</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>754</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>754</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>754</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>754</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>1132</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45506.51041666666</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>754</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>754</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>754</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>754</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>754</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>1262</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45506.55208333334</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>750.0499877929688</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>989</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45506.59375</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>749.8499755859375</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>1147</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1822"/>
+  <dimension ref="A1:R1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102213,7 +102213,7 @@
         <v>31</v>
       </c>
       <c r="O1817" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1817" t="n">
         <v>0</v>
@@ -102221,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102275,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102329,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102383,7 +102389,9 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1821">
       <c r="A1821" s="2" t="n">
@@ -102437,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102491,7 +102501,333 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45509.38541666666</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45509.42708333334</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>303</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45509.46875</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>129</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45509.51041666666</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>32</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45509.55208333334</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>114</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45509.59375</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>734.8499755859375</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>2619</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1828"/>
+  <dimension ref="A1:R1834"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102557,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102611,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102665,7 +102669,9 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1826">
       <c r="A1826" s="2" t="n">
@@ -102719,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102773,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102827,7 +102837,333 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45510.38541666666</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>942</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45510.42708333334</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>263</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45510.46875</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>1002</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45510.51041666666</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>671</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45510.55208333334</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>478</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45510.59375</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>720.1500244140625</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>1600</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/ZODIAC.NS.xlsx
+++ b/stock_historical_data/60m/ZODIAC.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1834"/>
+  <dimension ref="A1:R1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102893,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102947,7 +102949,9 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1831">
       <c r="A1831" s="2" t="n">
@@ -103001,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103055,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>0</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103109,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103163,7 +103173,333 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45511.38541666666</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45511.42708333334</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>433</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45511.46875</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>215</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>11</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45511.51041666666</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>232</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>12</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45511.55208333334</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>130</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>13</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45511.59375</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>250</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>14</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>15</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
